--- a/Modeling/Lab1/Lab1.xlsx
+++ b/Modeling/Lab1/Lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2398768715qq.com/GitHub/ITMO-PE/Modeling/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38530C3-9D34-DF47-9685-59CFBAF39F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964ADE0A-B05D-B84E-878C-13CD861BB9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1100" windowWidth="22940" windowHeight="28700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1100" windowWidth="22940" windowHeight="28700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -199,15 +199,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="\±##0.000"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="184" formatCode="##0.000"/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="183" formatCode="##0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -787,7 +785,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,12 +797,12 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -832,25 +830,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,14 +845,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,17 +868,54 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,76 +931,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14742,8 +14695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH306"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="164" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -14803,21 +14756,21 @@
       <c r="B2" s="7">
         <v>10.327999999999999</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
       <c r="M2" s="16" t="s">
         <v>25</v>
       </c>
@@ -14899,12 +14852,12 @@
       <c r="B3" s="7">
         <v>4.5952500216034551</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="34">
         <f>MAX(B2:B301)</f>
         <v>280.93793988287149</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="21">
         <v>10</v>
       </c>
@@ -14926,43 +14879,43 @@
       <c r="M3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="43">
         <f>COVAR($B2:$B301,Y2:Y301)/SQRT(VAR($B2:$B301)*VAR(Y2:Y301))</f>
         <v>-1.7865535410626701E-2</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="43">
         <f t="shared" ref="O3:W3" si="2">COVAR($B2:$B301,Z2:Z301)/SQRT(VAR($B2:$B301)*VAR(Z2:Z301))</f>
         <v>-1.0420739455337063E-2</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="43">
         <f t="shared" si="2"/>
         <v>-9.6134530747253422E-2</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="43">
         <f t="shared" si="2"/>
         <v>-8.6280451451674123E-2</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="43">
         <f t="shared" si="2"/>
         <v>-2.1001744046991452E-2</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="43">
         <f t="shared" si="2"/>
         <v>2.7845321054005862E-2</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="43">
         <f t="shared" si="2"/>
         <v>2.943261782731189E-2</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="43">
         <f t="shared" si="2"/>
         <v>-8.9721323493380634E-2</v>
       </c>
-      <c r="V3" s="49">
+      <c r="V3" s="43">
         <f t="shared" si="2"/>
         <v>6.6341398757959982E-2</v>
       </c>
-      <c r="W3" s="50">
+      <c r="W3" s="44">
         <f t="shared" si="2"/>
         <v>7.1175539809846767E-3</v>
       </c>
@@ -15014,36 +14967,36 @@
       <c r="B4" s="7">
         <v>3.435655546701355</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="24">
         <f>AVERAGE(B2:B11)</f>
         <v>23.501809079028597</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="24">
         <f>AVERAGE(B2:B21)</f>
         <v>17.038814488376193</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="40">
         <f>AVERAGE(B2:B51)</f>
         <v>22.249282221609768</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="40">
         <f>AVERAGE(B2:B101)</f>
         <v>23.667327898288004</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="40">
         <f>AVERAGE(B2:B201)</f>
         <v>22.596313493154067</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="51">
         <f>AVERAGE(B2:B301)</f>
         <v>22.707447527136424</v>
       </c>
@@ -15095,35 +15048,35 @@
       <c r="B5" s="7">
         <v>127.89790626936306</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <f>MIN(B2:B301)</f>
         <v>8.8202594851214122E-3</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="24">
         <f>(F4/$K$4 - 1)*100</f>
         <v>3.498242375955618</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <f t="shared" ref="G5:J5" si="4">(G4/$K$4 - 1)*100</f>
         <v>-24.963761479514414</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="24">
         <f t="shared" si="4"/>
         <v>-2.0176873907960302</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="24">
         <f t="shared" si="4"/>
         <v>4.2271610228515666</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="24">
         <f t="shared" si="4"/>
         <v>-0.48941667199514649</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="52"/>
       <c r="Y5" s="7">
         <f t="shared" si="0"/>
         <v>0.40281570904333086</v>
@@ -15172,33 +15125,33 @@
       <c r="B6" s="7">
         <v>0.40281570904333086</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="29">
         <f t="shared" ref="F6:K6" si="5">1.643*F14/SQRT(F3)</f>
         <v>20.938900070122966</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="29">
         <f t="shared" si="5"/>
         <v>11.334451730589453</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="29">
         <f t="shared" si="5"/>
         <v>7.6882467925391476</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="29">
         <f t="shared" si="5"/>
         <v>6.5605664640564996</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="29">
         <f t="shared" si="5"/>
         <v>4.4180442531508195</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="53">
         <f t="shared" si="5"/>
         <v>3.6964924931265828</v>
       </c>
@@ -15250,31 +15203,31 @@
       <c r="B7" s="7">
         <v>5.6237273220071105</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="29">
         <f>(F6/$K6-1)*100</f>
         <v>466.45320148918626</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="29">
         <f t="shared" ref="G7:J7" si="6">(G6/$K6-1)*100</f>
         <v>206.62720813487977</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="29">
         <f t="shared" si="6"/>
         <v>107.98762088209308</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="29">
         <f t="shared" si="6"/>
         <v>77.480854519669634</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="29">
         <f t="shared" si="6"/>
         <v>19.51990329659592</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="52"/>
       <c r="Y7" s="7">
         <f t="shared" si="0"/>
         <v>7.1740566103964989</v>
@@ -15323,33 +15276,33 @@
       <c r="B8" s="7">
         <v>7.1740566103964989</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <f t="shared" ref="F8:K8" si="7">1.96*F14/SQRT(F3)</f>
         <v>24.978846097042613</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="29">
         <f t="shared" si="7"/>
         <v>13.521317950064107</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="29">
         <f t="shared" si="7"/>
         <v>9.1716151633455425</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="29">
         <f t="shared" si="7"/>
         <v>7.8263604805543157</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="29">
         <f t="shared" si="7"/>
         <v>5.2704605819693287</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="54">
         <f t="shared" si="7"/>
         <v>4.409692809816252</v>
       </c>
@@ -15401,31 +15354,31 @@
       <c r="B9" s="7">
         <v>4.7588144691339478</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="29">
         <f>(F8/$K8-1)*100</f>
         <v>466.45320148918626</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="29">
         <f t="shared" ref="G9:J9" si="8">(G8/$K8-1)*100</f>
         <v>206.62720813487977</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="29">
         <f t="shared" si="8"/>
         <v>107.98762088209304</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="29">
         <f t="shared" si="8"/>
         <v>77.480854519669663</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="29">
         <f t="shared" si="8"/>
         <v>19.519903296595942</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="55"/>
       <c r="Y9" s="7">
         <f t="shared" si="0"/>
         <v>12.695186063123829</v>
@@ -15474,33 +15427,33 @@
       <c r="B10" s="7">
         <v>12.695186063123829</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="29">
         <f t="shared" ref="F10:K10" si="9">2.576*F14/SQRT(F3)</f>
         <v>32.829340584684573</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="29">
         <f t="shared" si="9"/>
         <v>17.770875020084254</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="29">
         <f t="shared" si="9"/>
         <v>12.054122786111286</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="29">
         <f t="shared" si="9"/>
         <v>10.286073774442816</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="29">
         <f t="shared" si="9"/>
         <v>6.9268910505882602</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="53">
         <f t="shared" si="9"/>
         <v>5.7955962643299319</v>
       </c>
@@ -15552,31 +15505,31 @@
       <c r="B11" s="7">
         <v>58.106678778913405</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="29">
         <f>(F10/$K10-1)*100</f>
         <v>466.45320148918614</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="29">
         <f t="shared" ref="G11:J11" si="10">(G10/$K10-1)*100</f>
         <v>206.62720813487971</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="29">
         <f t="shared" si="10"/>
         <v>107.98762088209304</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="29">
         <f t="shared" si="10"/>
         <v>77.480854519669663</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="29">
         <f t="shared" si="10"/>
         <v>19.51990329659592</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="52"/>
       <c r="Y11" s="7">
         <f t="shared" si="0"/>
         <v>2.9599705270003076</v>
@@ -15625,33 +15578,33 @@
       <c r="B12" s="7">
         <v>2.9599705270003076</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="29">
         <f>_xlfn.VAR.S(B2:B11)</f>
         <v>1624.174178310446</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="29">
         <f>_xlfn.VAR.S(B2:B21)</f>
         <v>951.82236103043431</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="41">
         <f>_xlfn.VAR.S(B2:B51)</f>
         <v>1094.8371082948502</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="41">
         <f>_xlfn.VAR.S(B2:B101)</f>
         <v>1594.4376918883372</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="41">
         <f>_xlfn.VAR.S(B2:B201)</f>
         <v>1446.1554949027732</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="53">
         <f>_xlfn.VAR.S(B2:B301)</f>
         <v>1518.538422293718</v>
       </c>
@@ -15703,31 +15656,31 @@
       <c r="B13" s="7">
         <v>33.03094563442113</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <f>(F12/$K12-1)*100</f>
         <v>6.9564098257828499</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="29">
         <f t="shared" ref="G13:J13" si="11">(G12/$K12-1)*100</f>
         <v>-37.319836820939436</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="29">
         <f t="shared" si="11"/>
         <v>-27.9019159330112</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="29">
         <f t="shared" si="11"/>
         <v>4.9981790701071116</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="29">
         <f t="shared" si="11"/>
         <v>-4.7666181064824231</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="52"/>
       <c r="Y13" s="7">
         <f t="shared" si="0"/>
         <v>8.894685349227208</v>
@@ -15776,33 +15729,33 @@
       <c r="B14" s="7">
         <v>8.894685349227208</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="29">
         <f t="shared" ref="F14:K14" si="12">SQRT(F12)</f>
         <v>40.301044382378556</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="29">
         <f t="shared" si="12"/>
         <v>30.851618450746379</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="29">
         <f t="shared" si="12"/>
         <v>33.088322838954078</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="29">
         <f t="shared" si="12"/>
         <v>39.930410615073036</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="29">
         <f t="shared" si="12"/>
         <v>38.028351198846018</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="53">
         <f t="shared" si="12"/>
         <v>38.968428532514856</v>
       </c>
@@ -15854,31 +15807,31 @@
       <c r="B15" s="7">
         <v>0.986705704104618</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="29">
         <f>(F14/$K14-1)*100</f>
         <v>3.4197320755487537</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="29">
         <f t="shared" ref="G15:J15" si="13">(G14/$K14-1)*100</f>
         <v>-20.829195293302362</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="29">
         <f t="shared" si="13"/>
         <v>-15.089409337239445</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="29">
         <f t="shared" si="13"/>
         <v>2.4686191329360785</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="29">
         <f t="shared" si="13"/>
         <v>-2.4124076055169863</v>
       </c>
-      <c r="K15" s="61"/>
+      <c r="K15" s="51"/>
       <c r="Y15" s="7">
         <f t="shared" si="0"/>
         <v>1.418220187844115</v>
@@ -15927,33 +15880,33 @@
       <c r="B16" s="7">
         <v>1.418220187844115</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="29">
         <f t="shared" ref="F16:K16" si="14">F14/F4</f>
         <v>1.714806049477291</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="29">
         <f t="shared" si="14"/>
         <v>1.8106669611194619</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="41">
         <f t="shared" si="14"/>
         <v>1.4871636086676459</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="41">
         <f t="shared" si="14"/>
         <v>1.6871533105332706</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="42">
         <f t="shared" si="14"/>
         <v>1.6829449286215359</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="56">
         <f t="shared" si="14"/>
         <v>1.7161078314040286</v>
       </c>
@@ -16005,31 +15958,31 @@
       <c r="B17" s="7">
         <v>50.312499459974617</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="29">
         <f>(F16/$K16-1)*100</f>
         <v>-7.5856650900107958E-2</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="29">
         <f t="shared" ref="G17:J17" si="15">(G16/$K16-1)*100</f>
         <v>5.5100925469275586</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="29">
         <f t="shared" si="15"/>
         <v>-13.340899595398536</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="29">
         <f t="shared" si="15"/>
         <v>-1.6872203681437048</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="29">
         <f t="shared" si="15"/>
         <v>-1.932448659438879</v>
       </c>
-      <c r="K17" s="67"/>
+      <c r="K17" s="57"/>
       <c r="Y17" s="7">
         <f t="shared" si="0"/>
         <v>5.8996716115324315</v>
@@ -17230,10 +17183,10 @@
       <c r="B42" s="7">
         <v>7.6558870060994072E-2</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="37" t="s">
         <v>44</v>
       </c>
       <c r="Y42" s="7">
@@ -17284,10 +17237,10 @@
       <c r="B43" s="7">
         <v>57.862076533124842</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="31">
         <v>225</v>
       </c>
       <c r="Y43" s="7">
@@ -17338,10 +17291,10 @@
       <c r="B44" s="7">
         <v>1.3197631538977872</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="31">
         <v>27</v>
       </c>
       <c r="Y44" s="7">
@@ -17392,10 +17345,10 @@
       <c r="B45" s="7">
         <v>9.7666712891638525</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="31">
         <v>23</v>
       </c>
       <c r="Y45" s="7">
@@ -17446,10 +17399,10 @@
       <c r="B46" s="7">
         <v>57.766890390155808</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="31">
         <v>9</v>
       </c>
       <c r="Y46" s="7">
@@ -17500,10 +17453,10 @@
       <c r="B47" s="7">
         <v>1.5682870008213992</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="31">
         <v>7</v>
       </c>
       <c r="Y47" s="7">
@@ -17554,10 +17507,10 @@
       <c r="B48" s="7">
         <v>11.890181921654117</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="31">
         <v>3</v>
       </c>
       <c r="Y48" s="7">
@@ -17608,10 +17561,10 @@
       <c r="B49" s="7">
         <v>0.34504206465743859</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="31">
         <v>1</v>
       </c>
       <c r="Y49" s="7">
@@ -17662,10 +17615,10 @@
       <c r="B50" s="7">
         <v>27.692815294276805</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="31">
         <v>3</v>
       </c>
       <c r="Y50" s="7">
@@ -17716,10 +17669,10 @@
       <c r="B51" s="7">
         <v>27.883743264603289</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="31">
         <v>0</v>
       </c>
       <c r="Y51" s="7">
@@ -17770,10 +17723,10 @@
       <c r="B52" s="7">
         <v>57.038481403281864</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="31">
         <v>1</v>
       </c>
       <c r="Y52" s="7">
@@ -17824,10 +17777,10 @@
       <c r="B53" s="7">
         <v>44.111004718899515</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="31">
         <v>0</v>
       </c>
       <c r="Y53" s="7">
@@ -17878,10 +17831,10 @@
       <c r="B54" s="7">
         <v>20.486717456038441</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="31">
         <v>1</v>
       </c>
       <c r="Y54" s="7">
@@ -17932,10 +17885,10 @@
       <c r="B55" s="7">
         <v>7.1052093942547945</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="33">
         <v>0</v>
       </c>
       <c r="Y55" s="7">
@@ -18706,7 +18659,7 @@
       <c r="B71" s="7">
         <v>17.949315202419818</v>
       </c>
-      <c r="N71" s="44"/>
+      <c r="N71" s="38"/>
       <c r="Y71" s="7">
         <f t="shared" si="24"/>
         <v>2.1217200641772109</v>
@@ -29830,6 +29783,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
@@ -29841,11 +29799,6 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29858,14 +29811,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6BD87-076C-4F5E-9E9E-7A85E615ADF0}">
   <dimension ref="A1:AH306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="151" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N28" sqref="M28:N28"/>
+    <sheetView zoomScale="151" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K4:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="79"/>
+    <col min="2" max="2" width="9" style="45"/>
     <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="5" style="3" customWidth="1"/>
@@ -29913,24 +29866,24 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="45">
         <v>2.1350883999681201</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="68" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
       <c r="M2" s="16" t="s">
         <v>25</v>
       </c>
@@ -30009,15 +29962,15 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="45">
         <v>8.4715418393261803</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="34">
         <f>MAX(B2:B301)</f>
         <v>238.90340928404001</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="21">
         <v>10</v>
       </c>
@@ -30039,43 +29992,43 @@
       <c r="M3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="43">
         <f>COVAR($B2:$B301,Y2:Y301)/SQRT(VAR($B2:$B301)*VAR(Y2:Y301))</f>
         <v>-8.0149784705754276E-2</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="43">
         <f t="shared" ref="O3:W3" si="2">COVAR($B2:$B301,Z2:Z301)/SQRT(VAR($B2:$B301)*VAR(Z2:Z301))</f>
         <v>9.4943603943303811E-2</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="43">
         <f t="shared" si="2"/>
         <v>5.1894655109314805E-2</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="43">
         <f t="shared" si="2"/>
         <v>2.510876301437839E-2</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="43">
         <f t="shared" si="2"/>
         <v>-5.7636841072789477E-2</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="43">
         <f t="shared" si="2"/>
         <v>-3.2755542629433289E-2</v>
       </c>
-      <c r="T3" s="49">
+      <c r="T3" s="43">
         <f t="shared" si="2"/>
         <v>8.389658657496625E-2</v>
       </c>
-      <c r="U3" s="49">
+      <c r="U3" s="43">
         <f t="shared" si="2"/>
         <v>3.3289074361764939E-2</v>
       </c>
-      <c r="V3" s="49">
+      <c r="V3" s="43">
         <f t="shared" si="2"/>
         <v>-7.7412560194885474E-2</v>
       </c>
-      <c r="W3" s="50">
+      <c r="W3" s="44">
         <f t="shared" si="2"/>
         <v>1.6498924250730834E-2</v>
       </c>
@@ -30124,16 +30077,16 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="45">
         <v>22.338535340964299</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="24">
@@ -30144,19 +30097,19 @@
         <f>AVERAGE(B2:B21)</f>
         <v>19.212071907552861</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="40">
         <f>AVERAGE(B2:B51)</f>
         <v>19.043403772738991</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="40">
         <f>AVERAGE(B2:B101)</f>
         <v>18.828735761819154</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="40">
         <f>AVERAGE(B2:B201)</f>
         <v>24.249168888563364</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="51">
         <f>AVERAGE(B2:B301)</f>
         <v>22.846545757372589</v>
       </c>
@@ -30205,38 +30158,38 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="45">
         <v>3.6014072314186798</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="34">
         <f>MIN(B2:B301)</f>
         <v>3.1818914624070903E-2</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="24">
         <f>(F4/$K$4 - 1)*100</f>
         <v>-18.618599636193188</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <f t="shared" ref="G5:J5" si="4">(G4/$K$4 - 1)*100</f>
         <v>-15.908198501503801</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="24">
         <f t="shared" si="4"/>
         <v>-16.646463868203455</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="24">
         <f t="shared" si="4"/>
         <v>-17.58607204004521</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="24">
         <f t="shared" si="4"/>
         <v>6.139322530795055</v>
       </c>
-      <c r="K5" s="71"/>
+      <c r="K5" s="52"/>
       <c r="Y5" s="7">
         <f t="shared" si="0"/>
         <v>4.8656472380682496</v>
@@ -30282,36 +30235,36 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="45">
         <v>4.8656472380682496</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="29">
         <f t="shared" ref="F6:K6" si="5">1.643*F14/SQRT(F3)</f>
         <v>15.347047414957675</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="29">
         <f t="shared" si="5"/>
         <v>8.8902443251673127</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="29">
         <f t="shared" si="5"/>
         <v>6.423563883201008</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="29">
         <f t="shared" si="5"/>
         <v>5.2121673530516333</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="29">
         <f t="shared" si="5"/>
         <v>4.4435853355310551</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="53">
         <f t="shared" si="5"/>
         <v>3.488540247679027</v>
       </c>
@@ -30360,34 +30313,34 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="45">
         <v>24.795692316039801</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="29">
         <f>(F6/$K6-1)*100</f>
         <v>339.92748615035396</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="29">
         <f t="shared" ref="G7:J7" si="6">(G6/$K6-1)*100</f>
         <v>154.84138619533235</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="29">
         <f t="shared" si="6"/>
         <v>84.133288629096128</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="29">
         <f t="shared" si="6"/>
         <v>49.408261994952142</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="29">
         <f t="shared" si="6"/>
         <v>27.376639512398704</v>
       </c>
-      <c r="K7" s="73"/>
+      <c r="K7" s="52"/>
       <c r="Y7" s="7">
         <f t="shared" si="0"/>
         <v>14.977154274302499</v>
@@ -30433,36 +30386,36 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="45">
         <v>14.977154274302499</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="29">
         <f t="shared" ref="F8:K8" si="7">1.96*F14/SQRT(F3)</f>
         <v>18.308102820034719</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="29">
         <f t="shared" si="7"/>
         <v>10.605525792652424</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="29">
         <f t="shared" si="7"/>
         <v>7.6629246567705271</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="29">
         <f t="shared" si="7"/>
         <v>6.2178015897633596</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="29">
         <f t="shared" si="7"/>
         <v>5.3009295542549415</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="54">
         <f t="shared" si="7"/>
         <v>4.1616183112908658</v>
       </c>
@@ -30511,34 +30464,34 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="45">
         <v>3.4589963511058301</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="29">
         <f>(F8/$K8-1)*100</f>
         <v>339.92748615035396</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="29">
         <f t="shared" ref="G9:J9" si="8">(G8/$K8-1)*100</f>
         <v>154.84138619533235</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="29">
         <f t="shared" si="8"/>
         <v>84.133288629096143</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="29">
         <f t="shared" si="8"/>
         <v>49.408261994952142</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="29">
         <f t="shared" si="8"/>
         <v>27.376639512398725</v>
       </c>
-      <c r="K9" s="78"/>
+      <c r="K9" s="55"/>
       <c r="Y9" s="7">
         <f t="shared" si="0"/>
         <v>99.2078777224378</v>
@@ -30584,36 +30537,36 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="45">
         <v>99.2078777224378</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="29">
         <f t="shared" ref="F10:K10" si="9">2.576*F14/SQRT(F3)</f>
         <v>24.06207799204563</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="29">
         <f t="shared" si="9"/>
         <v>13.938691041771758</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="29">
         <f t="shared" si="9"/>
         <v>10.071272406041265</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="29">
         <f t="shared" si="9"/>
         <v>8.1719678036889878</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="29">
         <f t="shared" si="9"/>
         <v>6.9669359855922091</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="53">
         <f t="shared" si="9"/>
         <v>5.4695554948394243</v>
       </c>
@@ -30662,34 +30615,34 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="45">
         <v>2.0764480074456202</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="29">
         <f>(F10/$K10-1)*100</f>
         <v>339.9274861503539</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="29">
         <f t="shared" ref="G11:J11" si="10">(G10/$K10-1)*100</f>
         <v>154.84138619533235</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="29">
         <f t="shared" si="10"/>
         <v>84.133288629096143</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="29">
         <f t="shared" si="10"/>
         <v>49.408261994952142</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="29">
         <f t="shared" si="10"/>
         <v>27.376639512398704</v>
       </c>
-      <c r="K11" s="73"/>
+      <c r="K11" s="52"/>
       <c r="Y11" s="7">
         <f t="shared" si="0"/>
         <v>37.917052312539298</v>
@@ -30735,36 +30688,36 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="45">
         <v>37.917052312539298</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="29">
         <f>_xlfn.VAR.S(B2:B11)</f>
         <v>872.51829672262409</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="29">
         <f>_xlfn.VAR.S(B2:B21)</f>
         <v>585.57464253756677</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="41">
         <f>_xlfn.VAR.S(B2:B51)</f>
         <v>764.27028185315635</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="41">
         <f>_xlfn.VAR.S(B2:B101)</f>
         <v>1006.3790246164039</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="41">
         <f>_xlfn.VAR.S(B2:B201)</f>
         <v>1462.9245178661754</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="53">
         <f>_xlfn.VAR.S(B2:B301)</f>
         <v>1352.4885700388986</v>
       </c>
@@ -30813,34 +30766,34 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="45">
         <v>5.0580056912649001</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="29">
         <f>(F12/$K12-1)*100</f>
         <v>-35.487935643143373</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="29">
         <f t="shared" ref="G13:J13" si="11">(G12/$K12-1)*100</f>
         <v>-56.703911921360998</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="29">
         <f t="shared" si="11"/>
         <v>-43.491553364389958</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="29">
         <f t="shared" si="11"/>
         <v>-25.590570825492478</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="29">
         <f t="shared" si="11"/>
         <v>8.1653886231438211</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="52"/>
       <c r="Y13" s="7">
         <f t="shared" si="0"/>
         <v>10.137066250716501</v>
@@ -30886,36 +30839,36 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="45">
         <v>10.137066250716501</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="29">
         <f t="shared" ref="F14:K14" si="12">SQRT(F12)</f>
         <v>29.53842068768444</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="29">
         <f t="shared" si="12"/>
         <v>24.198649601528736</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="29">
         <f t="shared" si="12"/>
         <v>27.645438716959372</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="29">
         <f t="shared" si="12"/>
         <v>31.723477498792654</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="29">
         <f t="shared" si="12"/>
         <v>38.248196269447469</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="53">
         <f t="shared" si="12"/>
         <v>36.776195698289655</v>
       </c>
@@ -30964,34 +30917,34 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="45">
         <v>0.42243001071636199</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="29">
         <f>(F14/$K14-1)*100</f>
         <v>-19.680597389636535</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="29">
         <f t="shared" ref="G15:J15" si="13">(G14/$K14-1)*100</f>
         <v>-34.200237022737682</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="29">
         <f t="shared" si="13"/>
         <v>-24.827899699682433</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="29">
         <f t="shared" si="13"/>
         <v>-13.739099718060254</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="29">
         <f t="shared" si="13"/>
         <v>4.0025906519370436</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="51"/>
       <c r="Y15" s="7">
         <f t="shared" si="0"/>
         <v>4.1438037423171403</v>
@@ -31037,36 +30990,36 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="45">
         <v>4.1438037423171403</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="29">
         <f t="shared" ref="F16:K16" si="14">F14/F4</f>
         <v>1.5886987937058334</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="29">
         <f t="shared" si="14"/>
         <v>1.2595543946520154</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="41">
         <f t="shared" si="14"/>
         <v>1.45170679815834</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="41">
         <f t="shared" si="14"/>
         <v>1.6848437356650048</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="42">
         <f t="shared" si="14"/>
         <v>1.5772992651919904</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="56">
         <f t="shared" si="14"/>
         <v>1.609704858180671</v>
       </c>
@@ -31115,34 +31068,34 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="45">
         <v>32.892162118296703</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="29">
         <f>(F16/$K16-1)*100</f>
         <v>-1.3049637247525725</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="29">
         <f t="shared" ref="G17:J17" si="15">(G16/$K16-1)*100</f>
         <v>-21.752463611522209</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="29">
         <f t="shared" si="15"/>
         <v>-9.8153434289130708</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="29">
         <f t="shared" si="15"/>
         <v>4.6678667273985619</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="29">
         <f t="shared" si="15"/>
         <v>-2.0131387952264879</v>
       </c>
-      <c r="K17" s="76"/>
+      <c r="K17" s="57"/>
       <c r="Y17" s="7">
         <f t="shared" si="0"/>
         <v>15.580387695664299</v>
@@ -31188,7 +31141,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="79">
+      <c r="B18" s="45">
         <v>15.580387695664299</v>
       </c>
       <c r="Y18" s="7">
@@ -31236,7 +31189,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="45">
         <v>32.892548950128997</v>
       </c>
       <c r="Y19" s="7">
@@ -31284,7 +31237,7 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="79">
+      <c r="B20" s="45">
         <v>2.6904994858602</v>
       </c>
       <c r="Y20" s="7">
@@ -31332,7 +31285,7 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="45">
         <v>56.579093172475901</v>
       </c>
       <c r="Y21" s="7">
@@ -31380,7 +31333,7 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="45">
         <v>8.3086161224038193</v>
       </c>
       <c r="Y22" s="7">
@@ -31428,7 +31381,7 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="45">
         <v>10.9484820281923</v>
       </c>
       <c r="Y23" s="7">
@@ -31476,7 +31429,7 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="45">
         <v>21.256499029544599</v>
       </c>
       <c r="Y24" s="7">
@@ -31524,7 +31477,7 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="45">
         <v>11.8096440555681</v>
       </c>
       <c r="Y25" s="7">
@@ -31572,7 +31525,7 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="45">
         <v>45.097613730434198</v>
       </c>
       <c r="Y26" s="7">
@@ -31620,7 +31573,7 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="45">
         <v>159.06886152904801</v>
       </c>
       <c r="Y27" s="7">
@@ -31668,7 +31621,7 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="45">
         <v>46.944615137825103</v>
       </c>
       <c r="Y28" s="7">
@@ -31716,7 +31669,7 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="79">
+      <c r="B29" s="45">
         <v>16.5081194312794</v>
       </c>
       <c r="Y29" s="7">
@@ -31764,7 +31717,7 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="79">
+      <c r="B30" s="45">
         <v>5.8580674880632397</v>
       </c>
       <c r="Y30" s="7">
@@ -31812,7 +31765,7 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="45">
         <v>2.9672765958812</v>
       </c>
       <c r="Y31" s="7">
@@ -31860,7 +31813,7 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="45">
         <v>6.6253102998633997</v>
       </c>
       <c r="Y32" s="7">
@@ -31908,7 +31861,7 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="79">
+      <c r="B33" s="45">
         <v>3.9423554585862601</v>
       </c>
       <c r="Y33" s="7">
@@ -31956,7 +31909,7 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="79">
+      <c r="B34" s="45">
         <v>32.042817283679597</v>
       </c>
       <c r="Y34" s="7">
@@ -32004,7 +31957,7 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="79">
+      <c r="B35" s="45">
         <v>8.5742455944116003</v>
       </c>
       <c r="Y35" s="7">
@@ -32052,7 +32005,7 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="45">
         <v>4.1267168440852903E-2</v>
       </c>
       <c r="Y36" s="7">
@@ -32100,7 +32053,7 @@
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="79">
+      <c r="B37" s="45">
         <v>3.28780263324035</v>
       </c>
       <c r="Y37" s="7">
@@ -32148,7 +32101,7 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="79">
+      <c r="B38" s="45">
         <v>3.69451010513496</v>
       </c>
       <c r="Y38" s="7">
@@ -32196,7 +32149,7 @@
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="79">
+      <c r="B39" s="45">
         <v>4.0941044161760898</v>
       </c>
       <c r="Y39" s="7">
@@ -32244,7 +32197,7 @@
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="79">
+      <c r="B40" s="45">
         <v>15.758168107421399</v>
       </c>
       <c r="Y40" s="7">
@@ -32292,7 +32245,7 @@
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="79">
+      <c r="B41" s="45">
         <v>53.378294337864602</v>
       </c>
       <c r="Y41" s="7">
@@ -32340,13 +32293,13 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="79">
+      <c r="B42" s="45">
         <v>0.73837644560834503</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="39" t="s">
         <v>44</v>
       </c>
       <c r="Y42" s="7">
@@ -32394,7 +32347,7 @@
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="79">
+      <c r="B43" s="45">
         <v>0.98604113227565504</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -32448,7 +32401,7 @@
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="79">
+      <c r="B44" s="45">
         <v>16.725015290198701</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -32502,7 +32455,7 @@
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="79">
+      <c r="B45" s="45">
         <v>11.510530407968901</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -32556,7 +32509,7 @@
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="79">
+      <c r="B46" s="45">
         <v>1.26347920884359</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -32610,7 +32563,7 @@
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="79">
+      <c r="B47" s="45">
         <v>0.89679634165064603</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -32664,7 +32617,7 @@
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="79">
+      <c r="B48" s="45">
         <v>13.462290941679701</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -32718,7 +32671,7 @@
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="79">
+      <c r="B49" s="45">
         <v>33.620435557094098</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -32772,7 +32725,7 @@
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="79">
+      <c r="B50" s="45">
         <v>15.7786297368802</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -32826,7 +32779,7 @@
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="79">
+      <c r="B51" s="45">
         <v>12.7404848706332</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -32880,7 +32833,7 @@
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="79">
+      <c r="B52" s="45">
         <v>7.0292887316256297E-2</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -32934,7 +32887,7 @@
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="79">
+      <c r="B53" s="45">
         <v>2.0641587934324299</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -32988,7 +32941,7 @@
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="79">
+      <c r="B54" s="45">
         <v>10.423908092025201</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -33042,7 +32995,7 @@
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="79">
+      <c r="B55" s="45">
         <v>4.4014497730176902</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -33093,7 +33046,7 @@
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="79">
+      <c r="B56" s="45">
         <v>1.1695295714202201</v>
       </c>
       <c r="Y56" s="7">
@@ -33141,7 +33094,7 @@
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="79">
+      <c r="B57" s="45">
         <v>3.55843254719814</v>
       </c>
       <c r="Y57" s="7">
@@ -33189,7 +33142,7 @@
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="79">
+      <c r="B58" s="45">
         <v>49.3623716478726</v>
       </c>
       <c r="Y58" s="7">
@@ -33237,7 +33190,7 @@
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="79">
+      <c r="B59" s="45">
         <v>3.8735353223784901</v>
       </c>
       <c r="Y59" s="7">
@@ -33285,7 +33238,7 @@
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="79">
+      <c r="B60" s="45">
         <v>38.837830314225599</v>
       </c>
       <c r="Y60" s="7">
@@ -33333,7 +33286,7 @@
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="79">
+      <c r="B61" s="45">
         <v>3.0128863621131701</v>
       </c>
       <c r="Y61" s="7">
@@ -33381,7 +33334,7 @@
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="79">
+      <c r="B62" s="45">
         <v>1.4614905927189299</v>
       </c>
       <c r="Y62" s="7">
@@ -33429,7 +33382,7 @@
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="79">
+      <c r="B63" s="45">
         <v>10.1192171696876</v>
       </c>
       <c r="Y63" s="7">
@@ -33477,7 +33430,7 @@
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="79">
+      <c r="B64" s="45">
         <v>92.309476926419407</v>
       </c>
       <c r="Y64" s="7">
@@ -33525,7 +33478,7 @@
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="79">
+      <c r="B65" s="45">
         <v>32.6131065589801</v>
       </c>
       <c r="Y65" s="7">
@@ -33573,7 +33526,7 @@
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="79">
+      <c r="B66" s="45">
         <v>3.1818914624070903E-2</v>
       </c>
       <c r="Y66" s="7">
@@ -33621,7 +33574,7 @@
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="79">
+      <c r="B67" s="45">
         <v>1.0942599437843401</v>
       </c>
       <c r="Y67" s="7">
@@ -33669,7 +33622,7 @@
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="79">
+      <c r="B68" s="45">
         <v>33.171048300290998</v>
       </c>
       <c r="Y68" s="7">
@@ -33717,7 +33670,7 @@
       <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="79">
+      <c r="B69" s="45">
         <v>3.49981545271811</v>
       </c>
       <c r="Y69" s="7">
@@ -33765,7 +33718,7 @@
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="79">
+      <c r="B70" s="45">
         <v>0.39115194773287598</v>
       </c>
       <c r="Y70" s="7">
@@ -33813,10 +33766,10 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="79">
+      <c r="B71" s="45">
         <v>3.4223237691016801</v>
       </c>
-      <c r="N71" s="44"/>
+      <c r="N71" s="38"/>
       <c r="Y71" s="7">
         <f t="shared" si="21"/>
         <v>111.77367321774901</v>
@@ -33862,7 +33815,7 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="79">
+      <c r="B72" s="45">
         <v>111.77367321774901</v>
       </c>
       <c r="Y72" s="7">
@@ -33910,7 +33863,7 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="79">
+      <c r="B73" s="45">
         <v>9.3463320785898798</v>
       </c>
       <c r="Y73" s="7">
@@ -33958,7 +33911,7 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="79">
+      <c r="B74" s="45">
         <v>8.4061210479902009</v>
       </c>
       <c r="Y74" s="7">
@@ -34006,7 +33959,7 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="79">
+      <c r="B75" s="45">
         <v>5.8999644931771602</v>
       </c>
       <c r="Y75" s="7">
@@ -34054,7 +34007,7 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="79">
+      <c r="B76" s="45">
         <v>21.326528715264001</v>
       </c>
       <c r="Y76" s="7">
@@ -34102,7 +34055,7 @@
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="79">
+      <c r="B77" s="45">
         <v>1.07036524692248</v>
       </c>
       <c r="Y77" s="7">
@@ -34150,7 +34103,7 @@
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="79">
+      <c r="B78" s="45">
         <v>1.8204399851178501</v>
       </c>
       <c r="Y78" s="7">
@@ -34198,7 +34151,7 @@
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="79">
+      <c r="B79" s="45">
         <v>163.99939160214899</v>
       </c>
       <c r="Y79" s="7">
@@ -34246,7 +34199,7 @@
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="79">
+      <c r="B80" s="45">
         <v>0.88333892440453898</v>
       </c>
       <c r="Y80" s="7">
@@ -34294,7 +34247,7 @@
       <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="79">
+      <c r="B81" s="45">
         <v>0.48503846472978401</v>
       </c>
       <c r="Y81" s="7">
@@ -34342,7 +34295,7 @@
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="79">
+      <c r="B82" s="45">
         <v>1.8371855002550299</v>
       </c>
       <c r="Y82" s="7">
@@ -34390,7 +34343,7 @@
       <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="79">
+      <c r="B83" s="45">
         <v>3.9745712990244901</v>
       </c>
       <c r="Y83" s="7">
@@ -34438,7 +34391,7 @@
       <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="79">
+      <c r="B84" s="45">
         <v>2.4194040888332902</v>
       </c>
       <c r="Y84" s="7">
@@ -34486,7 +34439,7 @@
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="79">
+      <c r="B85" s="45">
         <v>8.5167463224959707</v>
       </c>
       <c r="Y85" s="7">
@@ -34534,7 +34487,7 @@
       <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="79">
+      <c r="B86" s="45">
         <v>7.7251476447074996</v>
       </c>
       <c r="Y86" s="7">
@@ -34582,7 +34535,7 @@
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="79">
+      <c r="B87" s="45">
         <v>0.25371023226936901</v>
       </c>
       <c r="Y87" s="7">
@@ -34630,7 +34583,7 @@
       <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="79">
+      <c r="B88" s="45">
         <v>1.4196711521676699</v>
       </c>
       <c r="Y88" s="7">
@@ -34678,7 +34631,7 @@
       <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="79">
+      <c r="B89" s="45">
         <v>1.87610657051244</v>
       </c>
       <c r="Y89" s="7">
@@ -34726,7 +34679,7 @@
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="79">
+      <c r="B90" s="45">
         <v>12.4718737529302</v>
       </c>
       <c r="Y90" s="7">
@@ -34774,7 +34727,7 @@
       <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="79">
+      <c r="B91" s="45">
         <v>0.50057873265312103</v>
       </c>
       <c r="Y91" s="7">
@@ -34822,7 +34775,7 @@
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="79">
+      <c r="B92" s="45">
         <v>2.5405913473222701</v>
       </c>
       <c r="Y92" s="7">
@@ -34870,7 +34823,7 @@
       <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="79">
+      <c r="B93" s="45">
         <v>3.4520464704524398</v>
       </c>
       <c r="Y93" s="7">
@@ -34918,7 +34871,7 @@
       <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="79">
+      <c r="B94" s="45">
         <v>1.51755798940136</v>
       </c>
       <c r="Y94" s="7">
@@ -34966,7 +34919,7 @@
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="79">
+      <c r="B95" s="45">
         <v>3.2458535644289102</v>
       </c>
       <c r="Y95" s="7">
@@ -35014,7 +34967,7 @@
       <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="79">
+      <c r="B96" s="45">
         <v>9.2334904862375105</v>
       </c>
       <c r="Y96" s="7">
@@ -35062,7 +35015,7 @@
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="79">
+      <c r="B97" s="45">
         <v>64.417621069695201</v>
       </c>
       <c r="Y97" s="7">
@@ -35110,7 +35063,7 @@
       <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="79">
+      <c r="B98" s="45">
         <v>0.19036206671199901</v>
       </c>
       <c r="Y98" s="7">
@@ -35158,7 +35111,7 @@
       <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="79">
+      <c r="B99" s="45">
         <v>131.093781084043</v>
       </c>
       <c r="Y99" s="7">
@@ -35206,7 +35159,7 @@
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="79">
+      <c r="B100" s="45">
         <v>1.6167575151073601</v>
       </c>
       <c r="Y100" s="7">
@@ -35254,7 +35207,7 @@
       <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="79">
+      <c r="B101" s="45">
         <v>52.501031992564698</v>
       </c>
       <c r="Y101" s="7">
@@ -35302,7 +35255,7 @@
       <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="79">
+      <c r="B102" s="45">
         <v>60.265396949407403</v>
       </c>
       <c r="Y102" s="7">
@@ -35350,7 +35303,7 @@
       <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="79">
+      <c r="B103" s="45">
         <v>5.9009601093539903</v>
       </c>
       <c r="Y103" s="7">
@@ -35398,7 +35351,7 @@
       <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="79">
+      <c r="B104" s="45">
         <v>1.49764368282412</v>
       </c>
       <c r="Y104" s="7">
@@ -35446,7 +35399,7 @@
       <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="79">
+      <c r="B105" s="45">
         <v>29.699141020219599</v>
       </c>
       <c r="Y105" s="7">
@@ -35494,7 +35447,7 @@
       <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="79">
+      <c r="B106" s="45">
         <v>5.5308251126467498</v>
       </c>
       <c r="Y106" s="7">
@@ -35542,7 +35495,7 @@
       <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="79">
+      <c r="B107" s="45">
         <v>0.16459846762574501</v>
       </c>
       <c r="Y107" s="7">
@@ -35590,7 +35543,7 @@
       <c r="A108" s="12">
         <v>107</v>
       </c>
-      <c r="B108" s="79">
+      <c r="B108" s="45">
         <v>0.13729170901260301</v>
       </c>
       <c r="Y108" s="7">
@@ -35638,7 +35591,7 @@
       <c r="A109" s="12">
         <v>108</v>
       </c>
-      <c r="B109" s="79">
+      <c r="B109" s="45">
         <v>167.65719299388101</v>
       </c>
       <c r="Y109" s="7">
@@ -35686,7 +35639,7 @@
       <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="79">
+      <c r="B110" s="45">
         <v>5.3812523756038999</v>
       </c>
       <c r="Y110" s="7">
@@ -35734,7 +35687,7 @@
       <c r="A111" s="12">
         <v>110</v>
       </c>
-      <c r="B111" s="79">
+      <c r="B111" s="45">
         <v>0.54346919289554296</v>
       </c>
       <c r="Y111" s="7">
@@ -35782,7 +35735,7 @@
       <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="79">
+      <c r="B112" s="45">
         <v>117.152819578966</v>
       </c>
       <c r="Y112" s="7">
@@ -35830,7 +35783,7 @@
       <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="79">
+      <c r="B113" s="45">
         <v>88.230613151772104</v>
       </c>
       <c r="Y113" s="7">
@@ -35878,7 +35831,7 @@
       <c r="A114" s="12">
         <v>113</v>
       </c>
-      <c r="B114" s="79">
+      <c r="B114" s="45">
         <v>7.3382982229812903</v>
       </c>
       <c r="Y114" s="7">
@@ -35926,7 +35879,7 @@
       <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="79">
+      <c r="B115" s="45">
         <v>80.111093135208606</v>
       </c>
       <c r="Y115" s="7">
@@ -35974,7 +35927,7 @@
       <c r="A116" s="12">
         <v>115</v>
       </c>
-      <c r="B116" s="79">
+      <c r="B116" s="45">
         <v>85.661991863809803</v>
       </c>
       <c r="Y116" s="7">
@@ -36022,7 +35975,7 @@
       <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="79">
+      <c r="B117" s="45">
         <v>24.011305951237599</v>
       </c>
       <c r="Y117" s="7">
@@ -36070,7 +36023,7 @@
       <c r="A118" s="12">
         <v>117</v>
       </c>
-      <c r="B118" s="79">
+      <c r="B118" s="45">
         <v>2.1463275474667198</v>
       </c>
       <c r="Y118" s="7">
@@ -36118,7 +36071,7 @@
       <c r="A119" s="12">
         <v>118</v>
       </c>
-      <c r="B119" s="79">
+      <c r="B119" s="45">
         <v>1.5797537828577899</v>
       </c>
       <c r="Y119" s="7">
@@ -36166,7 +36119,7 @@
       <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="79">
+      <c r="B120" s="45">
         <v>4.78493755213987</v>
       </c>
       <c r="Y120" s="7">
@@ -36214,7 +36167,7 @@
       <c r="A121" s="12">
         <v>120</v>
       </c>
-      <c r="B121" s="79">
+      <c r="B121" s="45">
         <v>3.0593714068707398</v>
       </c>
       <c r="Y121" s="7">
@@ -36262,7 +36215,7 @@
       <c r="A122" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="79">
+      <c r="B122" s="45">
         <v>0.442365629636022</v>
       </c>
       <c r="Y122" s="7">
@@ -36310,7 +36263,7 @@
       <c r="A123" s="12">
         <v>122</v>
       </c>
-      <c r="B123" s="79">
+      <c r="B123" s="45">
         <v>10.7899554160928</v>
       </c>
       <c r="Y123" s="7">
@@ -36358,7 +36311,7 @@
       <c r="A124" s="12">
         <v>123</v>
       </c>
-      <c r="B124" s="79">
+      <c r="B124" s="45">
         <v>6.1262730395838796</v>
       </c>
       <c r="Y124" s="7">
@@ -36406,7 +36359,7 @@
       <c r="A125" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="79">
+      <c r="B125" s="45">
         <v>2.8890939624202798</v>
       </c>
       <c r="Y125" s="7">
@@ -36454,7 +36407,7 @@
       <c r="A126" s="12">
         <v>125</v>
       </c>
-      <c r="B126" s="79">
+      <c r="B126" s="45">
         <v>12.0175804635467</v>
       </c>
       <c r="Y126" s="7">
@@ -36502,7 +36455,7 @@
       <c r="A127" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="79">
+      <c r="B127" s="45">
         <v>74.656932678972893</v>
       </c>
       <c r="Y127" s="7">
@@ -36550,7 +36503,7 @@
       <c r="A128" s="12">
         <v>127</v>
       </c>
-      <c r="B128" s="79">
+      <c r="B128" s="45">
         <v>5.0860908647662697</v>
       </c>
       <c r="Y128" s="7">
@@ -36598,7 +36551,7 @@
       <c r="A129" s="12">
         <v>128</v>
       </c>
-      <c r="B129" s="79">
+      <c r="B129" s="45">
         <v>164.35938466641301</v>
       </c>
       <c r="Y129" s="7">
@@ -36646,7 +36599,7 @@
       <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="79">
+      <c r="B130" s="45">
         <v>8.9084119238121602</v>
       </c>
       <c r="Y130" s="7">
@@ -36694,7 +36647,7 @@
       <c r="A131" s="12">
         <v>130</v>
       </c>
-      <c r="B131" s="79">
+      <c r="B131" s="45">
         <v>59.539905200720199</v>
       </c>
       <c r="Y131" s="7">
@@ -36742,7 +36695,7 @@
       <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="79">
+      <c r="B132" s="45">
         <v>21.374405285382</v>
       </c>
       <c r="Y132" s="7">
@@ -36790,7 +36743,7 @@
       <c r="A133" s="12">
         <v>132</v>
       </c>
-      <c r="B133" s="79">
+      <c r="B133" s="45">
         <v>21.734191278918601</v>
       </c>
       <c r="Y133" s="7">
@@ -36838,7 +36791,7 @@
       <c r="A134" s="12">
         <v>133</v>
       </c>
-      <c r="B134" s="79">
+      <c r="B134" s="45">
         <v>10.3245959305226</v>
       </c>
       <c r="Y134" s="7">
@@ -36886,7 +36839,7 @@
       <c r="A135" s="12">
         <v>134</v>
       </c>
-      <c r="B135" s="79">
+      <c r="B135" s="45">
         <v>0.4702039336835</v>
       </c>
       <c r="Y135" s="7">
@@ -36934,7 +36887,7 @@
       <c r="A136" s="12">
         <v>135</v>
       </c>
-      <c r="B136" s="79">
+      <c r="B136" s="45">
         <v>110.403576179742</v>
       </c>
       <c r="Y136" s="7">
@@ -36982,7 +36935,7 @@
       <c r="A137" s="12">
         <v>136</v>
       </c>
-      <c r="B137" s="79">
+      <c r="B137" s="45">
         <v>1.66849512085619</v>
       </c>
       <c r="Y137" s="7">
@@ -37030,7 +36983,7 @@
       <c r="A138" s="12">
         <v>137</v>
       </c>
-      <c r="B138" s="79">
+      <c r="B138" s="45">
         <v>43.122782800971102</v>
       </c>
       <c r="Y138" s="7">
@@ -37078,7 +37031,7 @@
       <c r="A139" s="12">
         <v>138</v>
       </c>
-      <c r="B139" s="79">
+      <c r="B139" s="45">
         <v>44.393617218374203</v>
       </c>
       <c r="Y139" s="7">
@@ -37126,7 +37079,7 @@
       <c r="A140" s="12">
         <v>139</v>
       </c>
-      <c r="B140" s="79">
+      <c r="B140" s="45">
         <v>5.6230869709879299</v>
       </c>
       <c r="Y140" s="7">
@@ -37174,7 +37127,7 @@
       <c r="A141" s="12">
         <v>140</v>
       </c>
-      <c r="B141" s="79">
+      <c r="B141" s="45">
         <v>1.2214010358260201</v>
       </c>
       <c r="Y141" s="7">
@@ -37222,7 +37175,7 @@
       <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B142" s="79">
+      <c r="B142" s="45">
         <v>1.81153319871534</v>
       </c>
       <c r="Y142" s="7">
@@ -37270,7 +37223,7 @@
       <c r="A143" s="12">
         <v>142</v>
       </c>
-      <c r="B143" s="79">
+      <c r="B143" s="45">
         <v>7.6745097449718296</v>
       </c>
       <c r="Y143" s="7">
@@ -37318,7 +37271,7 @@
       <c r="A144" s="12">
         <v>143</v>
       </c>
-      <c r="B144" s="79">
+      <c r="B144" s="45">
         <v>45.465847505110297</v>
       </c>
       <c r="Y144" s="7">
@@ -37366,7 +37319,7 @@
       <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="79">
+      <c r="B145" s="45">
         <v>3.3309708830354601</v>
       </c>
       <c r="Y145" s="7">
@@ -37414,7 +37367,7 @@
       <c r="A146" s="12">
         <v>145</v>
       </c>
-      <c r="B146" s="79">
+      <c r="B146" s="45">
         <v>114.20697824867899</v>
       </c>
       <c r="Y146" s="7">
@@ -37462,7 +37415,7 @@
       <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="79">
+      <c r="B147" s="45">
         <v>3.7534810200552702</v>
       </c>
       <c r="Y147" s="7">
@@ -37510,7 +37463,7 @@
       <c r="A148" s="12">
         <v>147</v>
       </c>
-      <c r="B148" s="79">
+      <c r="B148" s="45">
         <v>8.7849558076886201</v>
       </c>
       <c r="Y148" s="7">
@@ -37558,7 +37511,7 @@
       <c r="A149" s="12">
         <v>148</v>
       </c>
-      <c r="B149" s="79">
+      <c r="B149" s="45">
         <v>7.7279589050699604</v>
       </c>
       <c r="Y149" s="7">
@@ -37606,7 +37559,7 @@
       <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B150" s="79">
+      <c r="B150" s="45">
         <v>11.492252491892099</v>
       </c>
       <c r="Y150" s="7">
@@ -37654,7 +37607,7 @@
       <c r="A151" s="12">
         <v>150</v>
       </c>
-      <c r="B151" s="79">
+      <c r="B151" s="45">
         <v>46.900844236389901</v>
       </c>
       <c r="Y151" s="7">
@@ -37702,7 +37655,7 @@
       <c r="A152" s="12">
         <v>151</v>
       </c>
-      <c r="B152" s="79">
+      <c r="B152" s="45">
         <v>1.7210509450462901</v>
       </c>
       <c r="Y152" s="7">
@@ -37750,7 +37703,7 @@
       <c r="A153" s="12">
         <v>152</v>
       </c>
-      <c r="B153" s="79">
+      <c r="B153" s="45">
         <v>3.3027874617378501</v>
       </c>
       <c r="Y153" s="7">
@@ -37798,7 +37751,7 @@
       <c r="A154" s="12">
         <v>153</v>
       </c>
-      <c r="B154" s="79">
+      <c r="B154" s="45">
         <v>37.625262394581803</v>
       </c>
       <c r="Y154" s="7">
@@ -37846,7 +37799,7 @@
       <c r="A155" s="12">
         <v>154</v>
       </c>
-      <c r="B155" s="79">
+      <c r="B155" s="45">
         <v>7.6666392175695197</v>
       </c>
       <c r="Y155" s="7">
@@ -37894,7 +37847,7 @@
       <c r="A156" s="12">
         <v>155</v>
       </c>
-      <c r="B156" s="79">
+      <c r="B156" s="45">
         <v>56.818801663221002</v>
       </c>
       <c r="Y156" s="7">
@@ -37942,7 +37895,7 @@
       <c r="A157" s="12">
         <v>156</v>
       </c>
-      <c r="B157" s="79">
+      <c r="B157" s="45">
         <v>1.7447444625178501</v>
       </c>
       <c r="Y157" s="7">
@@ -37990,7 +37943,7 @@
       <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="79">
+      <c r="B158" s="45">
         <v>2.9593679504166901</v>
       </c>
       <c r="Y158" s="7">
@@ -38038,7 +37991,7 @@
       <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="79">
+      <c r="B159" s="45">
         <v>10.804533769456199</v>
       </c>
       <c r="Y159" s="7">
@@ -38086,7 +38039,7 @@
       <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="79">
+      <c r="B160" s="45">
         <v>0.48515839941250899</v>
       </c>
       <c r="Y160" s="7">
@@ -38134,7 +38087,7 @@
       <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="79">
+      <c r="B161" s="45">
         <v>18.245749490973299</v>
       </c>
       <c r="Y161" s="7">
@@ -38182,7 +38135,7 @@
       <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="79">
+      <c r="B162" s="45">
         <v>3.4452839525318302</v>
       </c>
       <c r="Y162" s="7">
@@ -38230,7 +38183,7 @@
       <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="79">
+      <c r="B163" s="45">
         <v>84.836058879495198</v>
       </c>
       <c r="Y163" s="7">
@@ -38278,7 +38231,7 @@
       <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="79">
+      <c r="B164" s="45">
         <v>8.3538120272227498</v>
       </c>
       <c r="Y164" s="7">
@@ -38326,7 +38279,7 @@
       <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="79">
+      <c r="B165" s="45">
         <v>28.635778197501399</v>
       </c>
       <c r="Y165" s="7">
@@ -38374,7 +38327,7 @@
       <c r="A166" s="12">
         <v>165</v>
       </c>
-      <c r="B166" s="79">
+      <c r="B166" s="45">
         <v>6.0126083379939397</v>
       </c>
       <c r="Y166" s="7">
@@ -38422,7 +38375,7 @@
       <c r="A167" s="12">
         <v>166</v>
       </c>
-      <c r="B167" s="79">
+      <c r="B167" s="45">
         <v>58.497494146630601</v>
       </c>
       <c r="Y167" s="7">
@@ -38470,7 +38423,7 @@
       <c r="A168" s="12">
         <v>167</v>
       </c>
-      <c r="B168" s="79">
+      <c r="B168" s="45">
         <v>8.8999429007554198</v>
       </c>
       <c r="Y168" s="7">
@@ -38518,7 +38471,7 @@
       <c r="A169" s="12">
         <v>168</v>
       </c>
-      <c r="B169" s="79">
+      <c r="B169" s="45">
         <v>3.8844495067574698</v>
       </c>
       <c r="Y169" s="7">
@@ -38566,7 +38519,7 @@
       <c r="A170" s="12">
         <v>169</v>
       </c>
-      <c r="B170" s="79">
+      <c r="B170" s="45">
         <v>1.5339476254405799</v>
       </c>
       <c r="Y170" s="7">
@@ -38614,7 +38567,7 @@
       <c r="A171" s="12">
         <v>170</v>
       </c>
-      <c r="B171" s="79">
+      <c r="B171" s="45">
         <v>6.8767746248237902</v>
       </c>
       <c r="Y171" s="7">
@@ -38662,7 +38615,7 @@
       <c r="A172" s="12">
         <v>171</v>
       </c>
-      <c r="B172" s="79">
+      <c r="B172" s="45">
         <v>90.299356013394302</v>
       </c>
       <c r="Y172" s="7">
@@ -38710,7 +38663,7 @@
       <c r="A173" s="12">
         <v>172</v>
       </c>
-      <c r="B173" s="79">
+      <c r="B173" s="45">
         <v>10.9783029836177</v>
       </c>
       <c r="Y173" s="7">
@@ -38758,7 +38711,7 @@
       <c r="A174" s="12">
         <v>173</v>
       </c>
-      <c r="B174" s="79">
+      <c r="B174" s="45">
         <v>60.633820209215102</v>
       </c>
       <c r="Y174" s="7">
@@ -38806,7 +38759,7 @@
       <c r="A175" s="12">
         <v>174</v>
       </c>
-      <c r="B175" s="79">
+      <c r="B175" s="45">
         <v>2.1913304190757401</v>
       </c>
       <c r="Y175" s="7">
@@ -38854,7 +38807,7 @@
       <c r="A176" s="12">
         <v>175</v>
       </c>
-      <c r="B176" s="79">
+      <c r="B176" s="45">
         <v>26.794724465103599</v>
       </c>
       <c r="Y176" s="7">
@@ -38902,7 +38855,7 @@
       <c r="A177" s="12">
         <v>176</v>
       </c>
-      <c r="B177" s="79">
+      <c r="B177" s="45">
         <v>8.1877167919268992</v>
       </c>
       <c r="Y177" s="7">
@@ -38950,7 +38903,7 @@
       <c r="A178" s="12">
         <v>177</v>
       </c>
-      <c r="B178" s="79">
+      <c r="B178" s="45">
         <v>233.56243586466101</v>
       </c>
       <c r="Y178" s="7">
@@ -38998,7 +38951,7 @@
       <c r="A179" s="12">
         <v>178</v>
       </c>
-      <c r="B179" s="79">
+      <c r="B179" s="45">
         <v>3.1976056057056699</v>
       </c>
       <c r="Y179" s="7">
@@ -39046,7 +38999,7 @@
       <c r="A180" s="12">
         <v>179</v>
       </c>
-      <c r="B180" s="79">
+      <c r="B180" s="45">
         <v>7.5388511006576602</v>
       </c>
       <c r="Y180" s="7">
@@ -39094,7 +39047,7 @@
       <c r="A181" s="12">
         <v>180</v>
       </c>
-      <c r="B181" s="79">
+      <c r="B181" s="45">
         <v>2.87091568317499</v>
       </c>
       <c r="Y181" s="7">
@@ -39142,7 +39095,7 @@
       <c r="A182" s="12">
         <v>181</v>
       </c>
-      <c r="B182" s="79">
+      <c r="B182" s="45">
         <v>1.07318681201519</v>
       </c>
       <c r="Y182" s="7">
@@ -39190,7 +39143,7 @@
       <c r="A183" s="12">
         <v>182</v>
       </c>
-      <c r="B183" s="79">
+      <c r="B183" s="45">
         <v>59.7706944189759</v>
       </c>
       <c r="Y183" s="7">
@@ -39238,7 +39191,7 @@
       <c r="A184" s="12">
         <v>183</v>
       </c>
-      <c r="B184" s="79">
+      <c r="B184" s="45">
         <v>19.1753535975005</v>
       </c>
       <c r="Y184" s="7">
@@ -39286,7 +39239,7 @@
       <c r="A185" s="12">
         <v>184</v>
       </c>
-      <c r="B185" s="79">
+      <c r="B185" s="45">
         <v>42.634534282818301</v>
       </c>
       <c r="Y185" s="7">
@@ -39334,7 +39287,7 @@
       <c r="A186" s="12">
         <v>185</v>
       </c>
-      <c r="B186" s="79">
+      <c r="B186" s="45">
         <v>102.137934206022</v>
       </c>
       <c r="Y186" s="7">
@@ -39382,7 +39335,7 @@
       <c r="A187" s="12">
         <v>186</v>
       </c>
-      <c r="B187" s="79">
+      <c r="B187" s="45">
         <v>40.609802715389598</v>
       </c>
       <c r="Y187" s="7">
@@ -39430,7 +39383,7 @@
       <c r="A188" s="12">
         <v>187</v>
       </c>
-      <c r="B188" s="79">
+      <c r="B188" s="45">
         <v>8.5656858862707406</v>
       </c>
       <c r="Y188" s="7">
@@ -39478,7 +39431,7 @@
       <c r="A189" s="12">
         <v>188</v>
       </c>
-      <c r="B189" s="79">
+      <c r="B189" s="45">
         <v>162.78083344076401</v>
       </c>
       <c r="Y189" s="7">
@@ -39526,7 +39479,7 @@
       <c r="A190" s="12">
         <v>189</v>
       </c>
-      <c r="B190" s="79">
+      <c r="B190" s="45">
         <v>1.47363919972222</v>
       </c>
       <c r="Y190" s="7">
@@ -39574,7 +39527,7 @@
       <c r="A191" s="12">
         <v>190</v>
       </c>
-      <c r="B191" s="79">
+      <c r="B191" s="45">
         <v>38.020588828360196</v>
       </c>
       <c r="Y191" s="7">
@@ -39622,7 +39575,7 @@
       <c r="A192" s="12">
         <v>191</v>
       </c>
-      <c r="B192" s="79">
+      <c r="B192" s="45">
         <v>9.1529261548667105</v>
       </c>
       <c r="Y192" s="7">
@@ -39670,7 +39623,7 @@
       <c r="A193" s="12">
         <v>192</v>
       </c>
-      <c r="B193" s="79">
+      <c r="B193" s="45">
         <v>1.91893288623567</v>
       </c>
       <c r="Y193" s="7">
@@ -39718,7 +39671,7 @@
       <c r="A194" s="12">
         <v>193</v>
       </c>
-      <c r="B194" s="79">
+      <c r="B194" s="45">
         <v>20.782251557790801</v>
       </c>
       <c r="Y194" s="7">
@@ -39766,7 +39719,7 @@
       <c r="A195" s="12">
         <v>194</v>
       </c>
-      <c r="B195" s="79">
+      <c r="B195" s="45">
         <v>0.10166225494509699</v>
       </c>
       <c r="Y195" s="7">
@@ -39814,7 +39767,7 @@
       <c r="A196" s="12">
         <v>195</v>
       </c>
-      <c r="B196" s="79">
+      <c r="B196" s="45">
         <v>26.721229153158799</v>
       </c>
       <c r="Y196" s="7">
@@ -39862,7 +39815,7 @@
       <c r="A197" s="12">
         <v>196</v>
       </c>
-      <c r="B197" s="79">
+      <c r="B197" s="45">
         <v>30.228645176168101</v>
       </c>
       <c r="Y197" s="7">
@@ -39910,7 +39863,7 @@
       <c r="A198" s="12">
         <v>197</v>
       </c>
-      <c r="B198" s="79">
+      <c r="B198" s="45">
         <v>32.971518109255499</v>
       </c>
       <c r="Y198" s="7">
@@ -39958,7 +39911,7 @@
       <c r="A199" s="12">
         <v>198</v>
       </c>
-      <c r="B199" s="79">
+      <c r="B199" s="45">
         <v>18.141782504190601</v>
       </c>
       <c r="Y199" s="7">
@@ -40006,7 +39959,7 @@
       <c r="A200" s="12">
         <v>199</v>
       </c>
-      <c r="B200" s="79">
+      <c r="B200" s="45">
         <v>3.89817444773613</v>
       </c>
       <c r="Y200" s="7">
@@ -40054,7 +40007,7 @@
       <c r="A201" s="12">
         <v>200</v>
       </c>
-      <c r="B201" s="79">
+      <c r="B201" s="45">
         <v>1.03955535833511</v>
       </c>
       <c r="Y201" s="7">
@@ -40102,7 +40055,7 @@
       <c r="A202" s="12">
         <v>201</v>
       </c>
-      <c r="B202" s="79">
+      <c r="B202" s="45">
         <v>19.593189851187901</v>
       </c>
       <c r="Y202" s="7">
@@ -40150,7 +40103,7 @@
       <c r="A203" s="12">
         <v>202</v>
       </c>
-      <c r="B203" s="79">
+      <c r="B203" s="45">
         <v>17.6731370638473</v>
       </c>
       <c r="Y203" s="7">
@@ -40198,7 +40151,7 @@
       <c r="A204" s="12">
         <v>203</v>
       </c>
-      <c r="B204" s="79">
+      <c r="B204" s="45">
         <v>1.31415856953691</v>
       </c>
       <c r="Y204" s="7">
@@ -40246,7 +40199,7 @@
       <c r="A205" s="12">
         <v>204</v>
       </c>
-      <c r="B205" s="79">
+      <c r="B205" s="45">
         <v>12.253380370626401</v>
       </c>
       <c r="Y205" s="7">
@@ -40294,7 +40247,7 @@
       <c r="A206" s="12">
         <v>205</v>
       </c>
-      <c r="B206" s="79">
+      <c r="B206" s="45">
         <v>0.35717971114854202</v>
       </c>
       <c r="Y206" s="7">
@@ -40342,7 +40295,7 @@
       <c r="A207" s="12">
         <v>206</v>
       </c>
-      <c r="B207" s="79">
+      <c r="B207" s="45">
         <v>8.5149862704446999</v>
       </c>
       <c r="Y207" s="7">
@@ -40390,7 +40343,7 @@
       <c r="A208" s="12">
         <v>207</v>
       </c>
-      <c r="B208" s="79">
+      <c r="B208" s="45">
         <v>0.77879618929823402</v>
       </c>
       <c r="Y208" s="7">
@@ -40438,7 +40391,7 @@
       <c r="A209" s="12">
         <v>208</v>
       </c>
-      <c r="B209" s="79">
+      <c r="B209" s="45">
         <v>5.1303154027037099</v>
       </c>
       <c r="Y209" s="7">
@@ -40486,7 +40439,7 @@
       <c r="A210" s="12">
         <v>209</v>
       </c>
-      <c r="B210" s="79">
+      <c r="B210" s="45">
         <v>3.5478119519989901</v>
       </c>
       <c r="Y210" s="7">
@@ -40534,7 +40487,7 @@
       <c r="A211" s="12">
         <v>210</v>
       </c>
-      <c r="B211" s="79">
+      <c r="B211" s="45">
         <v>24.1682793504608</v>
       </c>
       <c r="Y211" s="7">
@@ -40582,7 +40535,7 @@
       <c r="A212" s="12">
         <v>211</v>
       </c>
-      <c r="B212" s="79">
+      <c r="B212" s="45">
         <v>4.9507696103552501</v>
       </c>
       <c r="Y212" s="7">
@@ -40630,7 +40583,7 @@
       <c r="A213" s="12">
         <v>212</v>
       </c>
-      <c r="B213" s="79">
+      <c r="B213" s="45">
         <v>22.647477872443702</v>
       </c>
       <c r="Y213" s="7">
@@ -40678,7 +40631,7 @@
       <c r="A214" s="12">
         <v>213</v>
       </c>
-      <c r="B214" s="79">
+      <c r="B214" s="45">
         <v>15.871348668059399</v>
       </c>
       <c r="Y214" s="7">
@@ -40726,7 +40679,7 @@
       <c r="A215" s="12">
         <v>214</v>
       </c>
-      <c r="B215" s="79">
+      <c r="B215" s="45">
         <v>62.469114812820301</v>
       </c>
       <c r="Y215" s="7">
@@ -40774,7 +40727,7 @@
       <c r="A216" s="12">
         <v>215</v>
       </c>
-      <c r="B216" s="79">
+      <c r="B216" s="45">
         <v>96.722584461160395</v>
       </c>
       <c r="Y216" s="7">
@@ -40822,7 +40775,7 @@
       <c r="A217" s="12">
         <v>216</v>
       </c>
-      <c r="B217" s="79">
+      <c r="B217" s="45">
         <v>1.2065298545715</v>
       </c>
       <c r="Y217" s="7">
@@ -40870,7 +40823,7 @@
       <c r="A218" s="12">
         <v>217</v>
       </c>
-      <c r="B218" s="79">
+      <c r="B218" s="45">
         <v>3.2751296051464598</v>
       </c>
       <c r="Y218" s="7">
@@ -40918,7 +40871,7 @@
       <c r="A219" s="12">
         <v>218</v>
       </c>
-      <c r="B219" s="79">
+      <c r="B219" s="45">
         <v>75.362361940942606</v>
       </c>
       <c r="Y219" s="7">
@@ -40966,7 +40919,7 @@
       <c r="A220" s="12">
         <v>219</v>
       </c>
-      <c r="B220" s="79">
+      <c r="B220" s="45">
         <v>34.687625444536103</v>
       </c>
       <c r="Y220" s="7">
@@ -41014,7 +40967,7 @@
       <c r="A221" s="12">
         <v>220</v>
       </c>
-      <c r="B221" s="79">
+      <c r="B221" s="45">
         <v>9.1690702185854391</v>
       </c>
       <c r="Y221" s="7">
@@ -41062,7 +41015,7 @@
       <c r="A222" s="12">
         <v>221</v>
       </c>
-      <c r="B222" s="79">
+      <c r="B222" s="45">
         <v>20.847632849397201</v>
       </c>
       <c r="Y222" s="7">
@@ -41110,7 +41063,7 @@
       <c r="A223" s="12">
         <v>222</v>
       </c>
-      <c r="B223" s="79">
+      <c r="B223" s="45">
         <v>38.0868577166015</v>
       </c>
       <c r="Y223" s="7">
@@ -41158,7 +41111,7 @@
       <c r="A224" s="12">
         <v>223</v>
       </c>
-      <c r="B224" s="79">
+      <c r="B224" s="45">
         <v>38.623133095374897</v>
       </c>
       <c r="Y224" s="7">
@@ -41206,7 +41159,7 @@
       <c r="A225" s="12">
         <v>224</v>
       </c>
-      <c r="B225" s="79">
+      <c r="B225" s="45">
         <v>6.2846064191806796</v>
       </c>
       <c r="Y225" s="7">
@@ -41254,7 +41207,7 @@
       <c r="A226" s="12">
         <v>225</v>
       </c>
-      <c r="B226" s="79">
+      <c r="B226" s="45">
         <v>7.25193939581471</v>
       </c>
       <c r="Y226" s="7">
@@ -41302,7 +41255,7 @@
       <c r="A227" s="12">
         <v>226</v>
       </c>
-      <c r="B227" s="79">
+      <c r="B227" s="45">
         <v>238.90340928404001</v>
       </c>
       <c r="Y227" s="7">
@@ -41350,7 +41303,7 @@
       <c r="A228" s="12">
         <v>227</v>
       </c>
-      <c r="B228" s="79">
+      <c r="B228" s="45">
         <v>2.6055357612493801</v>
       </c>
       <c r="Y228" s="7">
@@ -41398,7 +41351,7 @@
       <c r="A229" s="12">
         <v>228</v>
       </c>
-      <c r="B229" s="79">
+      <c r="B229" s="45">
         <v>145.856276117932</v>
       </c>
       <c r="Y229" s="7">
@@ -41446,7 +41399,7 @@
       <c r="A230" s="12">
         <v>229</v>
       </c>
-      <c r="B230" s="79">
+      <c r="B230" s="45">
         <v>7.8160269242100897</v>
       </c>
       <c r="Y230" s="7">
@@ -41494,7 +41447,7 @@
       <c r="A231" s="12">
         <v>230</v>
       </c>
-      <c r="B231" s="79">
+      <c r="B231" s="45">
         <v>0.28471945271517202</v>
       </c>
       <c r="Y231" s="7">
@@ -41542,7 +41495,7 @@
       <c r="A232" s="12">
         <v>231</v>
       </c>
-      <c r="B232" s="79">
+      <c r="B232" s="45">
         <v>1.7863226861475301</v>
       </c>
       <c r="Y232" s="7">
@@ -41590,7 +41543,7 @@
       <c r="A233" s="12">
         <v>232</v>
       </c>
-      <c r="B233" s="79">
+      <c r="B233" s="45">
         <v>11.9358162545109</v>
       </c>
       <c r="Y233" s="7">
@@ -41638,7 +41591,7 @@
       <c r="A234" s="12">
         <v>233</v>
       </c>
-      <c r="B234" s="79">
+      <c r="B234" s="45">
         <v>2.7885254389681098</v>
       </c>
       <c r="Y234" s="7">
@@ -41686,7 +41639,7 @@
       <c r="A235" s="12">
         <v>234</v>
       </c>
-      <c r="B235" s="79">
+      <c r="B235" s="45">
         <v>18.295515946997799</v>
       </c>
       <c r="Y235" s="7">
@@ -41734,7 +41687,7 @@
       <c r="A236" s="12">
         <v>235</v>
       </c>
-      <c r="B236" s="79">
+      <c r="B236" s="45">
         <v>8.4983729081421693</v>
       </c>
       <c r="Y236" s="7">
@@ -41782,7 +41735,7 @@
       <c r="A237" s="12">
         <v>236</v>
       </c>
-      <c r="B237" s="79">
+      <c r="B237" s="45">
         <v>20.189055674308101</v>
       </c>
       <c r="Y237" s="7">
@@ -41830,7 +41783,7 @@
       <c r="A238" s="12">
         <v>237</v>
       </c>
-      <c r="B238" s="79">
+      <c r="B238" s="45">
         <v>34.110176991539198</v>
       </c>
       <c r="Y238" s="7">
@@ -41878,7 +41831,7 @@
       <c r="A239" s="12">
         <v>238</v>
       </c>
-      <c r="B239" s="79">
+      <c r="B239" s="45">
         <v>64.527726606999806</v>
       </c>
       <c r="Y239" s="7">
@@ -41926,7 +41879,7 @@
       <c r="A240" s="12">
         <v>239</v>
       </c>
-      <c r="B240" s="79">
+      <c r="B240" s="45">
         <v>27.6153075087384</v>
       </c>
       <c r="Y240" s="7">
@@ -41974,7 +41927,7 @@
       <c r="A241" s="12">
         <v>240</v>
       </c>
-      <c r="B241" s="79">
+      <c r="B241" s="45">
         <v>3.5872614761557999</v>
       </c>
       <c r="Y241" s="7">
@@ -42022,7 +41975,7 @@
       <c r="A242" s="12">
         <v>241</v>
       </c>
-      <c r="B242" s="79">
+      <c r="B242" s="45">
         <v>9.2939925035983393</v>
       </c>
       <c r="Y242" s="7">
@@ -42070,7 +42023,7 @@
       <c r="A243" s="12">
         <v>242</v>
       </c>
-      <c r="B243" s="79">
+      <c r="B243" s="45">
         <v>21.1825783323489</v>
       </c>
       <c r="Y243" s="7">
@@ -42118,7 +42071,7 @@
       <c r="A244" s="12">
         <v>243</v>
       </c>
-      <c r="B244" s="79">
+      <c r="B244" s="45">
         <v>3.9809371604257899</v>
       </c>
       <c r="Y244" s="7">
@@ -42166,7 +42119,7 @@
       <c r="A245" s="12">
         <v>244</v>
       </c>
-      <c r="B245" s="79">
+      <c r="B245" s="45">
         <v>2.9367371051164199</v>
       </c>
       <c r="Y245" s="7">
@@ -42214,7 +42167,7 @@
       <c r="A246" s="12">
         <v>245</v>
       </c>
-      <c r="B246" s="79">
+      <c r="B246" s="45">
         <v>29.3976322393763</v>
       </c>
       <c r="Y246" s="7">
@@ -42262,7 +42215,7 @@
       <c r="A247" s="12">
         <v>246</v>
       </c>
-      <c r="B247" s="79">
+      <c r="B247" s="45">
         <v>9.1229569004545592</v>
       </c>
       <c r="Y247" s="7">
@@ -42310,7 +42263,7 @@
       <c r="A248" s="12">
         <v>247</v>
       </c>
-      <c r="B248" s="79">
+      <c r="B248" s="45">
         <v>8.1981044972779493</v>
       </c>
       <c r="Y248" s="7">
@@ -42358,7 +42311,7 @@
       <c r="A249" s="12">
         <v>248</v>
       </c>
-      <c r="B249" s="79">
+      <c r="B249" s="45">
         <v>25.818153674608698</v>
       </c>
       <c r="Y249" s="7">
@@ -42406,7 +42359,7 @@
       <c r="A250" s="12">
         <v>249</v>
       </c>
-      <c r="B250" s="79">
+      <c r="B250" s="45">
         <v>7.3452698573672697</v>
       </c>
       <c r="Y250" s="7">
@@ -42454,7 +42407,7 @@
       <c r="A251" s="12">
         <v>250</v>
       </c>
-      <c r="B251" s="79">
+      <c r="B251" s="45">
         <v>18.908276805770601</v>
       </c>
       <c r="Y251" s="7">
@@ -42502,7 +42455,7 @@
       <c r="A252" s="12">
         <v>251</v>
       </c>
-      <c r="B252" s="79">
+      <c r="B252" s="45">
         <v>3.6905089113133398</v>
       </c>
       <c r="Y252" s="7">
@@ -42550,7 +42503,7 @@
       <c r="A253" s="12">
         <v>252</v>
       </c>
-      <c r="B253" s="79">
+      <c r="B253" s="45">
         <v>74.806527285156605</v>
       </c>
       <c r="Y253" s="7">
@@ -42598,7 +42551,7 @@
       <c r="A254" s="12">
         <v>253</v>
       </c>
-      <c r="B254" s="79">
+      <c r="B254" s="45">
         <v>1.54288011309924</v>
       </c>
       <c r="Y254" s="7">
@@ -42646,7 +42599,7 @@
       <c r="A255" s="12">
         <v>254</v>
       </c>
-      <c r="B255" s="79">
+      <c r="B255" s="45">
         <v>4.0097024048168803</v>
       </c>
       <c r="Y255" s="7">
@@ -42694,7 +42647,7 @@
       <c r="A256" s="12">
         <v>255</v>
       </c>
-      <c r="B256" s="79">
+      <c r="B256" s="45">
         <v>75.536311514263005</v>
       </c>
       <c r="Y256" s="7">
@@ -42742,7 +42695,7 @@
       <c r="A257" s="12">
         <v>256</v>
       </c>
-      <c r="B257" s="79">
+      <c r="B257" s="45">
         <v>19.213324581995799</v>
       </c>
       <c r="Y257" s="7">
@@ -42790,7 +42743,7 @@
       <c r="A258" s="12">
         <v>257</v>
       </c>
-      <c r="B258" s="79">
+      <c r="B258" s="45">
         <v>3.4575581690900901</v>
       </c>
       <c r="Y258" s="7">
@@ -42838,7 +42791,7 @@
       <c r="A259" s="12">
         <v>258</v>
       </c>
-      <c r="B259" s="79">
+      <c r="B259" s="45">
         <v>5.21225499703029</v>
       </c>
       <c r="Y259" s="7">
@@ -42886,7 +42839,7 @@
       <c r="A260" s="12">
         <v>259</v>
       </c>
-      <c r="B260" s="79">
+      <c r="B260" s="45">
         <v>9.6221250934982603</v>
       </c>
       <c r="Y260" s="7">
@@ -42934,7 +42887,7 @@
       <c r="A261" s="12">
         <v>260</v>
       </c>
-      <c r="B261" s="79">
+      <c r="B261" s="45">
         <v>2.3959029912060998</v>
       </c>
       <c r="Y261" s="7">
@@ -42982,7 +42935,7 @@
       <c r="A262" s="12">
         <v>261</v>
       </c>
-      <c r="B262" s="79">
+      <c r="B262" s="45">
         <v>18.0554503547203</v>
       </c>
       <c r="Y262" s="7">
@@ -43030,7 +42983,7 @@
       <c r="A263" s="12">
         <v>262</v>
       </c>
-      <c r="B263" s="79">
+      <c r="B263" s="45">
         <v>1.9476587149646201</v>
       </c>
       <c r="Y263" s="7">
@@ -43078,7 +43031,7 @@
       <c r="A264" s="12">
         <v>263</v>
       </c>
-      <c r="B264" s="79">
+      <c r="B264" s="45">
         <v>2.9492010082862201</v>
       </c>
       <c r="Y264" s="7">
@@ -43126,7 +43079,7 @@
       <c r="A265" s="12">
         <v>264</v>
       </c>
-      <c r="B265" s="79">
+      <c r="B265" s="45">
         <v>17.173397019666201</v>
       </c>
       <c r="Y265" s="7">
@@ -43174,7 +43127,7 @@
       <c r="A266" s="12">
         <v>265</v>
       </c>
-      <c r="B266" s="79">
+      <c r="B266" s="45">
         <v>2.5662755503774202</v>
       </c>
       <c r="Y266" s="7">
@@ -43222,7 +43175,7 @@
       <c r="A267" s="12">
         <v>266</v>
       </c>
-      <c r="B267" s="79">
+      <c r="B267" s="45">
         <v>0.49735797436805801</v>
       </c>
       <c r="Y267" s="7">
@@ -43270,7 +43223,7 @@
       <c r="A268" s="12">
         <v>267</v>
       </c>
-      <c r="B268" s="79">
+      <c r="B268" s="45">
         <v>12.0963425142121</v>
       </c>
       <c r="Y268" s="7">
@@ -43318,7 +43271,7 @@
       <c r="A269" s="12">
         <v>268</v>
       </c>
-      <c r="B269" s="79">
+      <c r="B269" s="45">
         <v>1.7362118767132599</v>
       </c>
       <c r="Y269" s="7">
@@ -43366,7 +43319,7 @@
       <c r="A270" s="12">
         <v>269</v>
       </c>
-      <c r="B270" s="79">
+      <c r="B270" s="45">
         <v>2.5953694098236402</v>
       </c>
       <c r="Y270" s="7">
@@ -43414,7 +43367,7 @@
       <c r="A271" s="12">
         <v>270</v>
       </c>
-      <c r="B271" s="79">
+      <c r="B271" s="45">
         <v>30.743524969081101</v>
       </c>
       <c r="Y271" s="7">
@@ -43462,7 +43415,7 @@
       <c r="A272" s="12">
         <v>271</v>
       </c>
-      <c r="B272" s="79">
+      <c r="B272" s="45">
         <v>46.538298399049701</v>
       </c>
       <c r="Y272" s="7">
@@ -43510,7 +43463,7 @@
       <c r="A273" s="12">
         <v>272</v>
       </c>
-      <c r="B273" s="79">
+      <c r="B273" s="45">
         <v>7.64409858663557</v>
       </c>
       <c r="Y273" s="7">
@@ -43558,7 +43511,7 @@
       <c r="A274" s="12">
         <v>273</v>
       </c>
-      <c r="B274" s="79">
+      <c r="B274" s="45">
         <v>2.3850409161706301</v>
       </c>
       <c r="Y274" s="7">
@@ -43606,7 +43559,7 @@
       <c r="A275" s="12">
         <v>274</v>
       </c>
-      <c r="B275" s="79">
+      <c r="B275" s="45">
         <v>8.3062796247352395</v>
       </c>
       <c r="Y275" s="7">
@@ -43654,7 +43607,7 @@
       <c r="A276" s="12">
         <v>275</v>
       </c>
-      <c r="B276" s="79">
+      <c r="B276" s="45">
         <v>4.81116881118293</v>
       </c>
       <c r="Y276" s="7">
@@ -43702,7 +43655,7 @@
       <c r="A277" s="12">
         <v>276</v>
       </c>
-      <c r="B277" s="79">
+      <c r="B277" s="45">
         <v>10.406007914196501</v>
       </c>
       <c r="Y277" s="7">
@@ -43750,7 +43703,7 @@
       <c r="A278" s="12">
         <v>277</v>
       </c>
-      <c r="B278" s="79">
+      <c r="B278" s="45">
         <v>0.18087097336071301</v>
       </c>
       <c r="Y278" s="7">
@@ -43798,7 +43751,7 @@
       <c r="A279" s="12">
         <v>278</v>
       </c>
-      <c r="B279" s="79">
+      <c r="B279" s="45">
         <v>0.63849871307566797</v>
       </c>
       <c r="Y279" s="7">
@@ -43846,7 +43799,7 @@
       <c r="A280" s="12">
         <v>279</v>
       </c>
-      <c r="B280" s="79">
+      <c r="B280" s="45">
         <v>5.8673337305098103</v>
       </c>
       <c r="Y280" s="7">
@@ -43894,7 +43847,7 @@
       <c r="A281" s="12">
         <v>280</v>
       </c>
-      <c r="B281" s="79">
+      <c r="B281" s="45">
         <v>2.3465909977318802</v>
       </c>
       <c r="Y281" s="7">
@@ -43942,7 +43895,7 @@
       <c r="A282" s="12">
         <v>281</v>
       </c>
-      <c r="B282" s="79">
+      <c r="B282" s="45">
         <v>8.6081603213880094</v>
       </c>
       <c r="Y282" s="7">
@@ -43990,7 +43943,7 @@
       <c r="A283" s="12">
         <v>282</v>
       </c>
-      <c r="B283" s="79">
+      <c r="B283" s="45">
         <v>2.0359081547942499</v>
       </c>
       <c r="Y283" s="7">
@@ -44038,7 +43991,7 @@
       <c r="A284" s="12">
         <v>283</v>
       </c>
-      <c r="B284" s="79">
+      <c r="B284" s="45">
         <v>6.0400400986788503</v>
       </c>
       <c r="Y284" s="7">
@@ -44086,7 +44039,7 @@
       <c r="A285" s="12">
         <v>284</v>
       </c>
-      <c r="B285" s="79">
+      <c r="B285" s="45">
         <v>4.0878399188546801</v>
       </c>
       <c r="Y285" s="7">
@@ -44134,7 +44087,7 @@
       <c r="A286" s="12">
         <v>285</v>
       </c>
-      <c r="B286" s="79">
+      <c r="B286" s="45">
         <v>49.924279506765501</v>
       </c>
       <c r="Y286" s="7">
@@ -44182,7 +44135,7 @@
       <c r="A287" s="12">
         <v>286</v>
       </c>
-      <c r="B287" s="79">
+      <c r="B287" s="45">
         <v>0.34954638961331802</v>
       </c>
       <c r="Y287" s="7">
@@ -44230,7 +44183,7 @@
       <c r="A288" s="12">
         <v>287</v>
       </c>
-      <c r="B288" s="79">
+      <c r="B288" s="45">
         <v>52.8561385123189</v>
       </c>
       <c r="Y288" s="7">
@@ -44278,7 +44231,7 @@
       <c r="A289" s="12">
         <v>288</v>
       </c>
-      <c r="B289" s="79">
+      <c r="B289" s="45">
         <v>11.506213805286</v>
       </c>
       <c r="Y289" s="7">
@@ -44326,7 +44279,7 @@
       <c r="A290" s="12">
         <v>289</v>
       </c>
-      <c r="B290" s="79">
+      <c r="B290" s="45">
         <v>2.84490188947579</v>
       </c>
       <c r="Y290" s="7">
@@ -44374,7 +44327,7 @@
       <c r="A291" s="12">
         <v>290</v>
       </c>
-      <c r="B291" s="79">
+      <c r="B291" s="45">
         <v>4.1866976874958599</v>
       </c>
       <c r="Y291" s="7">
@@ -44422,7 +44375,7 @@
       <c r="A292" s="12">
         <v>291</v>
       </c>
-      <c r="B292" s="79">
+      <c r="B292" s="45">
         <v>1.6567212696412399</v>
       </c>
       <c r="Y292" s="7">
@@ -44470,7 +44423,7 @@
       <c r="A293" s="12">
         <v>292</v>
       </c>
-      <c r="B293" s="79">
+      <c r="B293" s="45">
         <v>81.868443553355903</v>
       </c>
       <c r="Y293" s="7">
@@ -44518,7 +44471,7 @@
       <c r="A294" s="12">
         <v>293</v>
       </c>
-      <c r="B294" s="79">
+      <c r="B294" s="45">
         <v>24.5621116058044</v>
       </c>
       <c r="Y294" s="7">
@@ -44566,7 +44519,7 @@
       <c r="A295" s="12">
         <v>294</v>
       </c>
-      <c r="B295" s="79">
+      <c r="B295" s="45">
         <v>1.05729415280408</v>
       </c>
       <c r="Y295" s="7">
@@ -44614,7 +44567,7 @@
       <c r="A296" s="12">
         <v>295</v>
       </c>
-      <c r="B296" s="79">
+      <c r="B296" s="45">
         <v>94.327073113335999</v>
       </c>
       <c r="Y296" s="7">
@@ -44662,7 +44615,7 @@
       <c r="A297" s="12">
         <v>296</v>
       </c>
-      <c r="B297" s="79">
+      <c r="B297" s="45">
         <v>0.39835804998145502</v>
       </c>
       <c r="Y297" s="7">
@@ -44710,7 +44663,7 @@
       <c r="A298" s="12">
         <v>297</v>
       </c>
-      <c r="B298" s="79">
+      <c r="B298" s="45">
         <v>5.1432856372390896</v>
       </c>
       <c r="Y298" s="7">
@@ -44758,7 +44711,7 @@
       <c r="A299" s="12">
         <v>298</v>
       </c>
-      <c r="B299" s="79">
+      <c r="B299" s="45">
         <v>0.67615173989138999</v>
       </c>
       <c r="Y299" s="7">
@@ -44806,7 +44759,7 @@
       <c r="A300" s="12">
         <v>299</v>
       </c>
-      <c r="B300" s="79">
+      <c r="B300" s="45">
         <v>14.382097987605301</v>
       </c>
       <c r="Y300" s="7">
@@ -44854,7 +44807,7 @@
       <c r="A301" s="12">
         <v>300</v>
       </c>
-      <c r="B301" s="79">
+      <c r="B301" s="45">
         <v>2.8745071791988099</v>
       </c>
       <c r="Y301" s="7">
@@ -44923,6 +44876,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="D16:D17"/>
@@ -44933,12 +44892,6 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
